--- a/planning_data/all_planning.xlsx
+++ b/planning_data/all_planning.xlsx
@@ -7,17 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ExtraPairs_Bal-Unbal" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ExtraPairs_Unbal-Bal" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DoppelgangerSamplesA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DoppelgangerSamplesM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Balanced Doppel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Unbalanced Doppel" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bal-Unbal Doppel" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Unbal-Bal Doppel" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bal_doppel_samples_R" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bal_doppel_samples_Y" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Additional doppel samples" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">Patient_ID</t>
   </si>
@@ -265,32 +267,22 @@
     <t xml:space="preserve">E2A_27_Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClassPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same Class
- Different Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doppelganger</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelPartner</t>
   </si>
   <si>
     <t xml:space="preserve">Doppelganger Samples</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bal.unbal_doppel_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbal.bal_doppel_samples</t>
   </si>
 </sst>
 </file>
@@ -1480,116 +1472,267 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.975749794763763</v>
-      </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.977052710394061</v>
-      </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.975396421424737</v>
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.976411388742551</v>
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.975819825283937</v>
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.976917807039742</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1613,31 +1756,496 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.975749794763763</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,35 +2265,6 @@
       <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.978803543934627</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,185 +2282,269 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16">
-      <c r="A16"/>
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17">
-      <c r="A17"/>
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27"/>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1899,40 +2562,236 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
@@ -2054,103 +2913,143 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39"/>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s">
-        <v>81</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
